--- a/admin/laporan_peminjaman_2024-03.xlsx
+++ b/admin/laporan_peminjaman_2024-03.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>ID Peminjaman</t>
   </si>
@@ -33,36 +33,6 @@
   </si>
   <si>
     <t>Status Peminjam</t>
-  </si>
-  <si>
-    <t>Kambing Jantan</t>
-  </si>
-  <si>
-    <t>awana</t>
-  </si>
-  <si>
-    <t>2024-03-05</t>
-  </si>
-  <si>
-    <t>dikembalikan</t>
-  </si>
-  <si>
-    <t>Koala Kumal</t>
-  </si>
-  <si>
-    <t>2024-03-06</t>
-  </si>
-  <si>
-    <t>dipinjam</t>
-  </si>
-  <si>
-    <t>Danur</t>
-  </si>
-  <si>
-    <t>Twilight</t>
-  </si>
-  <si>
-    <t>Grey dan Jingga</t>
   </si>
 </sst>
 </file>
@@ -402,7 +372,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,166 +400,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>643</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>644</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>645</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>646</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>647</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>648</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>649</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>650</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
